--- a/WDG Stack Configration exercise/AUTOSAR Watchdog Stack Exercise.xlsx
+++ b/WDG Stack Configration exercise/AUTOSAR Watchdog Stack Exercise.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEITech_STudy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEITech_STudy\Sprints_AUTOSAR\WDG Stack Configration exercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,38 +15,30 @@
     <sheet name="Exercise Solution" sheetId="1" r:id="rId1"/>
     <sheet name="SE1" sheetId="3" r:id="rId2"/>
     <sheet name="SE2" sheetId="4" r:id="rId3"/>
-    <sheet name="Templates" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="WdgMCheckpoint_0">'SE1'!$A$9</definedName>
     <definedName name="WdgMCheckpoint_1">'SE1'!$A$12</definedName>
-    <definedName name="WdgMCheckpoint_2">'SE2'!$A$9</definedName>
-    <definedName name="WdgMCheckpoint_3">'SE2'!$A$12</definedName>
-    <definedName name="WdgMCheckpoint_4">'SE2'!$A$15</definedName>
-    <definedName name="WdgMCheckpoint_5">'SE2'!$A$18</definedName>
+    <definedName name="WdgMCheckpoint_2">'SE2'!$A$10</definedName>
+    <definedName name="WdgMCheckpoint_3">'SE2'!$A$13</definedName>
+    <definedName name="WdgMCheckpoint_4">'SE2'!$A$16</definedName>
+    <definedName name="WdgMCheckpoint_5">'SE2'!$A$19</definedName>
     <definedName name="WdgMCheckpoint_6">'SE2'!#REF!</definedName>
-    <definedName name="WdgMMode_0">'Exercise Solution'!$A$26</definedName>
-    <definedName name="WdgMMode_1">'Exercise Solution'!$D$26</definedName>
+    <definedName name="WdgMMode_0">'Exercise Solution'!$A$22</definedName>
+    <definedName name="WdgMMode_1">'Exercise Solution'!$D$22</definedName>
+    <definedName name="WdgMSupervisedEntity_0">'SE1'!$A$3</definedName>
+    <definedName name="WdgMSupervisedEntity_1">'SE2'!$A$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
   <si>
     <t>Trainee Name</t>
   </si>
   <si>
-    <t>WdgMSupervisedEntity_##</t>
-  </si>
-  <si>
-    <t>WdgMCheckpoint_##</t>
-  </si>
-  <si>
-    <t>WdgMInternalTransition_##</t>
-  </si>
-  <si>
     <t>WdgMSupervisedEntityId</t>
   </si>
   <si>
@@ -68,15 +60,9 @@
     <t>WdgMOSCounter</t>
   </si>
   <si>
-    <t>WdgMConfigSet_##</t>
-  </si>
-  <si>
     <t>WdgMInitialMode</t>
   </si>
   <si>
-    <t>WdgMMode_##</t>
-  </si>
-  <si>
     <t>WdgMExpiredSupervisionCycleTol</t>
   </si>
   <si>
@@ -86,48 +72,27 @@
     <t>WdgMSupervisionCycle</t>
   </si>
   <si>
-    <t>WdgMAliveSupervision_##</t>
-  </si>
-  <si>
-    <t>WdgMTrigger_##</t>
-  </si>
-  <si>
     <t>WdgMExpectedAliveIndications</t>
   </si>
   <si>
-    <t>WdgMTriggerConditionValue</t>
-  </si>
-  <si>
     <t>WdgMMaxMargin</t>
   </si>
   <si>
-    <t>WdgMWatchdogMode</t>
-  </si>
-  <si>
     <t>WdgMMinMargin</t>
   </si>
   <si>
-    <t>WdgMTriggerWatchdogRef</t>
-  </si>
-  <si>
     <t>WdgMSupervisionReferenceCycle</t>
   </si>
   <si>
     <t>WdgMAliveSupervisionCheckpointRef</t>
   </si>
   <si>
-    <t>WdgMLocalStatusParams_##</t>
-  </si>
-  <si>
     <t>WdgMFailedAliveSupervisionRefCycleTol</t>
   </si>
   <si>
     <t>WdgMLocalStatusSupervisedEntityRef</t>
   </si>
   <si>
-    <t>WdgGeneral_##</t>
-  </si>
-  <si>
     <t>WdgDisableAllowed</t>
   </si>
   <si>
@@ -137,9 +102,6 @@
     <t>WdgMaxTimeout</t>
   </si>
   <si>
-    <t>WdgSettingsConfig_##</t>
-  </si>
-  <si>
     <t>WdgDefaultMode</t>
   </si>
   <si>
@@ -203,9 +165,6 @@
     <t>Application 2</t>
   </si>
   <si>
-    <t>WdgMDeadlineSupervision_##</t>
-  </si>
-  <si>
     <t>WdgMDeadlineMax</t>
   </si>
   <si>
@@ -216,6 +175,33 @@
   </si>
   <si>
     <t>WdgMDeadlineStopRef</t>
+  </si>
+  <si>
+    <t>Wdg_0</t>
+  </si>
+  <si>
+    <t>WdgSettingsConfig_0</t>
+  </si>
+  <si>
+    <t>WdgGeneral_0</t>
+  </si>
+  <si>
+    <t>WdgMLocalStatusParams_0</t>
+  </si>
+  <si>
+    <t>WdgMLocalStatusParams_1</t>
+  </si>
+  <si>
+    <t>WDGIF_FAST_MODE</t>
+  </si>
+  <si>
+    <t>WdgMAliveSupervision_0</t>
+  </si>
+  <si>
+    <t>WdgMDeadlineSupervision_0</t>
+  </si>
+  <si>
+    <t>WdgMInternalTransition_0</t>
   </si>
 </sst>
 </file>
@@ -330,7 +316,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -860,6 +846,19 @@
       </top>
       <bottom style="thick">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -871,7 +870,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -881,91 +880,16 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -974,36 +898,120 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="41" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="41" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1226,10 +1234,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:E35"/>
+  <dimension ref="A2:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1242,20 +1250,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
+      <c r="B2" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -1264,206 +1272,201 @@
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="8"/>
+      <c r="A5" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="30"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>43</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="8"/>
+      <c r="A8" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="30"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="8"/>
+      <c r="A14" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="30"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="40"/>
+      <c r="D20" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="42"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="D22" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="28"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="14">
+        <v>0</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="14">
+        <v>0</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="14">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="43"/>
-      <c r="D24" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="45"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36"/>
-      <c r="B25" s="37"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="37"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="34"/>
-      <c r="D26" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="34"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="26">
-        <v>0</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="26">
-        <v>0</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="26">
-        <v>0</v>
+      <c r="D26" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="46"/>
+      <c r="B27" s="26" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="26">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D29" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="26">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="50"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="47"/>
-      <c r="B31" s="67" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="5"/>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="D26:E26"/>
+  <mergeCells count="12">
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:D3"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B30" location="'SE1'!A1" display="WdgMSupervisedEntity_0"/>
-    <hyperlink ref="B31" location="'SE2'!A1" display="WdgMSupervisedEntity_1"/>
+    <hyperlink ref="B26" location="'SE1'!A1" display="WdgMSupervisedEntity_0"/>
+    <hyperlink ref="B27" location="'SE2'!A1" display="WdgMSupervisedEntity_1"/>
     <hyperlink ref="B6" location="WdgMMode_0" display="WdgMMode_0"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1473,10 +1476,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1487,170 +1490,220 @@
     <col min="5" max="5" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="52"/>
+    </row>
+    <row r="2" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="50"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="50"/>
+    </row>
+    <row r="10" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="28"/>
+    </row>
+    <row r="13" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="57"/>
+      <c r="B14" s="58"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="30"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="22"/>
-    </row>
-    <row r="2" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="41"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="18">
+      <c r="B23" s="48"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="20" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
-      <c r="B8" s="32"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="41"/>
-    </row>
-    <row r="10" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="20">
+      <c r="B26" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="30"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="34"/>
-    </row>
-    <row r="13" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="59"/>
-      <c r="B14" s="60"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="D16" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="64"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="D17" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="62"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="D18" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="62"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="D19" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="62"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="D20" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="62"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="32"/>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="67" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" location="WdgMCheckpoint_0" display="WdgMCheckpoint_0"/>
     <hyperlink ref="B6" location="WdgMCheckpoint_1" display="WdgMCheckpoint_1"/>
+    <hyperlink ref="B21" location="WdgMCheckpoint_0" display="WdgMCheckpoint_0"/>
+    <hyperlink ref="B31" location="WdgMSupervisedEntity_0" display="WdgMSupervisedEntity_0"/>
+    <hyperlink ref="B26" location="WdgMCheckpoint_0" display="WdgMCheckpoint_0"/>
+    <hyperlink ref="B27" location="WdgMCheckpoint_1" display="WdgMCheckpoint_1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1658,10 +1711,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1671,413 +1724,214 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="66"/>
+    </row>
+    <row r="2" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="28"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="70"/>
+      <c r="B7" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="62"/>
+      <c r="B9" s="63"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="28"/>
+    </row>
+    <row r="11" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="55"/>
+      <c r="B12" s="56"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="61"/>
+    </row>
+    <row r="14" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="55"/>
+      <c r="B15" s="56"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="61"/>
+    </row>
+    <row r="17" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="55"/>
+      <c r="B18" s="56"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="61"/>
+    </row>
+    <row r="20" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="59"/>
+      <c r="B21" s="60"/>
+    </row>
+    <row r="22" spans="1:2" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="31"/>
-    </row>
-    <row r="2" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="32"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="34"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="B24" s="48"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="69"/>
+      <c r="B27" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="30"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="2">
         <v>4</v>
       </c>
-      <c r="B4" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="55"/>
-      <c r="B8" s="56"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="34"/>
-    </row>
-    <row r="10" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="32"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="35"/>
-    </row>
-    <row r="13" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="B14" s="32"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="35"/>
-    </row>
-    <row r="16" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="32"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="35"/>
-    </row>
-    <row r="19" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="57"/>
-      <c r="B20" s="58"/>
-    </row>
-    <row r="21" spans="1:2" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="64"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="66"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="66"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A20:B20"/>
+  <mergeCells count="16">
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A3:B3"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" location="WdgMCheckpoint_3" display="WdgMCheckpoint_3"/>
+    <hyperlink ref="B32" location="WdgMSupervisedEntity_1" display="WdgMSupervisedEntity_1"/>
+    <hyperlink ref="B26" location="WdgMCheckpoint_4" display="WdgMCheckpoint_4"/>
+    <hyperlink ref="B27" location="WdgMCheckpoint_5" display="WdgMCheckpoint_5"/>
     <hyperlink ref="B6" location="WdgMCheckpoint_4" display="WdgMCheckpoint_4"/>
+    <hyperlink ref="B7" location="WdgMCheckpoint_5" display="WdgMCheckpoint_5"/>
+    <hyperlink ref="B25" location="WdgMCheckpoint_3" display="WdgMCheckpoint_3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:H41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" customWidth="1"/>
-    <col min="7" max="7" width="30.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="D1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="8"/>
-      <c r="G1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="G19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="G20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="G21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="8"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="8"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="8"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A18:B18"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/WDG Stack Configration exercise/AUTOSAR Watchdog Stack Exercise.xlsx
+++ b/WDG Stack Configration exercise/AUTOSAR Watchdog Stack Exercise.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
   <si>
     <t>Trainee Name</t>
   </si>
@@ -202,6 +202,27 @@
   </si>
   <si>
     <t>WdgMInternalTransition_0</t>
+  </si>
+  <si>
+    <t>WdgMTriggerConditionValue</t>
+  </si>
+  <si>
+    <t>WdgMWatchdogMode</t>
+  </si>
+  <si>
+    <t>WdgMTriggerWatchdogRef</t>
+  </si>
+  <si>
+    <t>WdgMTrigger_0</t>
+  </si>
+  <si>
+    <t>WdgMTrigger_1</t>
+  </si>
+  <si>
+    <t>WdgMWatchdog_0</t>
+  </si>
+  <si>
+    <t>WDGIF_SLOW_MODE</t>
   </si>
 </sst>
 </file>
@@ -870,7 +891,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -902,14 +923,21 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="41" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -940,11 +968,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -972,29 +1000,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1002,16 +1015,29 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1234,10 +1260,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:E31"/>
+  <dimension ref="A2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1250,20 +1276,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
     </row>
     <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -1272,10 +1298,10 @@
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="31"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1286,10 +1312,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="31"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1324,10 +1350,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="30"/>
+      <c r="B14" s="31"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1355,30 +1381,30 @@
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="D20" s="41" t="s">
+      <c r="B20" s="43"/>
+      <c r="D20" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="42"/>
+      <c r="E20" s="45"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43"/>
-      <c r="B21" s="44"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="47"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="D22" s="27" t="s">
+      <c r="B22" s="33"/>
+      <c r="D22" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="28"/>
+      <c r="E22" s="33"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
@@ -1423,7 +1449,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="28" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="20" t="s">
@@ -1435,34 +1461,78 @@
       <c r="E26" s="19"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="26" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="31"/>
       <c r="C29" s="5"/>
+      <c r="D29" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="71"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="73"/>
       <c r="C30" s="5"/>
+      <c r="D30" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="73"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="73" t="s">
+        <v>52</v>
+      </c>
       <c r="C31" s="5"/>
+      <c r="D31" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="73" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="73" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B26" location="'SE1'!A1" display="WdgMSupervisedEntity_0"/>
@@ -1491,20 +1561,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="55"/>
     </row>
     <row r="2" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="50"/>
+      <c r="B3" s="53"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -1539,14 +1609,14 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="55"/>
-      <c r="B8" s="56"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="59"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="53"/>
     </row>
     <row r="10" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
@@ -1561,10 +1631,10 @@
       <c r="B11" s="12"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="28"/>
+      <c r="B12" s="33"/>
     </row>
     <row r="13" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
@@ -1575,14 +1645,14 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="57"/>
-      <c r="B14" s="58"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="49"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="30"/>
+      <c r="B16" s="31"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -1625,10 +1695,10 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="48"/>
+      <c r="B23" s="51"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
@@ -1663,10 +1733,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="30"/>
+      <c r="B29" s="31"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -1680,22 +1750,22 @@
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="27" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" location="WdgMCheckpoint_0" display="WdgMCheckpoint_0"/>
@@ -1724,20 +1794,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="66"/>
+      <c r="B1" s="64"/>
     </row>
     <row r="2" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="33"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -1756,7 +1826,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -1764,7 +1834,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="20" t="s">
         <v>37</v>
       </c>
@@ -1778,14 +1848,14 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="62"/>
-      <c r="B9" s="63"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="69"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="28"/>
+      <c r="B10" s="33"/>
     </row>
     <row r="11" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
@@ -1796,14 +1866,14 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="55"/>
-      <c r="B12" s="56"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="59"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="61"/>
+      <c r="B13" s="67"/>
     </row>
     <row r="14" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
@@ -1814,14 +1884,14 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="55"/>
-      <c r="B15" s="56"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="61"/>
+      <c r="B16" s="67"/>
     </row>
     <row r="17" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
@@ -1832,14 +1902,14 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="55"/>
-      <c r="B18" s="56"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="59"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="61"/>
+      <c r="B19" s="67"/>
     </row>
     <row r="20" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
@@ -1850,15 +1920,15 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="59"/>
-      <c r="B21" s="60"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="66"/>
     </row>
     <row r="22" spans="1:2" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="48"/>
+      <c r="B24" s="51"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
@@ -1869,7 +1939,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="60" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="20" t="s">
@@ -1877,16 +1947,16 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="69"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="20" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="30"/>
+      <c r="B30" s="31"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
